--- a/doc/project_docs/7.Analytics.xlsx
+++ b/doc/project_docs/7.Analytics.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>João Victor Ruas Araujo</t>
   </si>
@@ -77,12 +77,27 @@
   <si>
     <t>Quantidade de Usuarios</t>
   </si>
+  <si>
+    <t>Primeiro Quartil</t>
+  </si>
+  <si>
+    <t>Valor Minimo</t>
+  </si>
+  <si>
+    <t>Mediana/Segundo Quartil</t>
+  </si>
+  <si>
+    <t>Terceiro Quartil</t>
+  </si>
+  <si>
+    <t>Valor Maximo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +155,12 @@
       <color theme="0"/>
       <name val="Biome"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Biome"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -185,7 +206,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -213,117 +234,7 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF820000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF820000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF820000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF820000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF820000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF820000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF820000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF820000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -418,7 +329,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -436,7 +347,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -445,10 +356,10 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -461,6 +372,139 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -473,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -481,25 +525,115 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -508,86 +642,29 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -634,15 +711,11 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="standard"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -711,6 +784,158 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Usuarios por Mês</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$D$10:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Usuarios por Ano</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$E$10:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>6</c:v>
@@ -730,11 +955,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="130600960"/>
-        <c:axId val="225283456"/>
+        <c:axId val="189882368"/>
+        <c:axId val="146910016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="130600960"/>
+        <c:axId val="189882368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -743,7 +968,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="225283456"/>
+        <c:crossAx val="146910016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -751,7 +976,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="225283456"/>
+        <c:axId val="146910016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -762,7 +987,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130600960"/>
+        <c:crossAx val="189882368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -773,7 +998,7 @@
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
@@ -813,11 +1038,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$D$9</c:f>
+              <c:f>Planilha1!$C$42:$C$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Usuarios por Mês</c:v>
+                  <c:v>Usuarios por Semana f(x) = x * 7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -827,57 +1052,57 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$D$10:$D$25</c:f>
+              <c:f>Planilha1!$C$44:$C$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -894,11 +1119,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="132355584"/>
-        <c:axId val="225337344"/>
+        <c:axId val="189883904"/>
+        <c:axId val="146912320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="132355584"/>
+        <c:axId val="189883904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -907,7 +1132,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="225337344"/>
+        <c:crossAx val="146912320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -915,7 +1140,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="225337344"/>
+        <c:axId val="146912320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -926,7 +1151,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132355584"/>
+        <c:crossAx val="189883904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -977,11 +1202,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$E$9</c:f>
+              <c:f>Planilha1!$D$42:$D$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Usuarios por Ano</c:v>
+                  <c:v>Usuarios por Mês f(x) = x * 30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -991,57 +1216,57 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$E$10:$E$25</c:f>
+              <c:f>Planilha1!$D$44:$D$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1058,11 +1283,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="132354048"/>
-        <c:axId val="225343104"/>
+        <c:axId val="189884416"/>
+        <c:axId val="146914048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="132354048"/>
+        <c:axId val="189884416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1071,7 +1296,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="225343104"/>
+        <c:crossAx val="146914048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1079,7 +1304,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="225343104"/>
+        <c:axId val="146914048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1090,7 +1315,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132354048"/>
+        <c:crossAx val="189884416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1126,22 +1351,26 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$C$9</c:f>
+              <c:f>Planilha1!$E$42:$E$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Usuarios por Semana</c:v>
+                  <c:v>Usuarios por Ano f(x) = x * 365</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1151,209 +1380,57 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$C$10:$C$25</c:f>
+              <c:f>Planilha1!$E$44:$E$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>730</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>2190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>1825</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>1460</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>730</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>2190</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>1460</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>2190</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>2190</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>730</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1825</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>1095</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>2190</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7</c:v>
+                  <c:v>730</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6</c:v>
+                  <c:v>2555</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Planilha1!$D$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Usuarios por Mês</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Planilha1!$D$10:$D$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Planilha1!$E$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Usuarios por Ano</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Planilha1!$E$10:$E$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6</c:v>
+                  <c:v>2190</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1370,11 +1447,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="156885504"/>
-        <c:axId val="253086528"/>
+        <c:axId val="189884928"/>
+        <c:axId val="190816832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="156885504"/>
+        <c:axId val="189884928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1383,7 +1460,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="253086528"/>
+        <c:crossAx val="190816832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1391,7 +1468,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="253086528"/>
+        <c:axId val="190816832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1402,7 +1479,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156885504"/>
+        <c:crossAx val="189884928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1413,7 +1490,7 @@
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
@@ -1453,11 +1530,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$C$35:$C$36</c:f>
+              <c:f>Planilha1!$C$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Usuarios por Semana f(x) = x * 7</c:v>
+                  <c:v>Usuarios por Semana</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1467,57 +1544,57 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$C$37:$C$52</c:f>
+              <c:f>Planilha1!$C$10:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>49</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>14</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>49</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>42</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1534,11 +1611,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="131222016"/>
-        <c:axId val="205192512"/>
+        <c:axId val="189885440"/>
+        <c:axId val="190818560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="131222016"/>
+        <c:axId val="189885440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1547,7 +1624,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205192512"/>
+        <c:crossAx val="190818560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1555,7 +1632,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="205192512"/>
+        <c:axId val="190818560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1566,7 +1643,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131222016"/>
+        <c:crossAx val="189885440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1617,11 +1694,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$D$35:$D$36</c:f>
+              <c:f>Planilha1!$D$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Usuarios por Mês f(x) = x * 30</c:v>
+                  <c:v>Usuarios por Mês</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1631,57 +1708,57 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$D$37:$D$52</c:f>
+              <c:f>Planilha1!$D$10:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>180</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>210</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>150</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>180</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>180</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>120</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>90</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>150</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>150</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>90</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>150</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1698,11 +1775,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="131223040"/>
-        <c:axId val="206375744"/>
+        <c:axId val="189885952"/>
+        <c:axId val="190820288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="131223040"/>
+        <c:axId val="189885952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1711,7 +1788,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206375744"/>
+        <c:crossAx val="190820288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1719,7 +1796,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206375744"/>
+        <c:axId val="190820288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1730,7 +1807,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131223040"/>
+        <c:crossAx val="189885952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1781,11 +1858,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$E$35:$E$36</c:f>
+              <c:f>Planilha1!$E$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Usuarios por Ano f(x) = x * 365</c:v>
+                  <c:v>Usuarios por Ano</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1795,57 +1872,57 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$E$37:$E$52</c:f>
+              <c:f>Planilha1!$E$10:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>730</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2190</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1825</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1460</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>730</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2190</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1460</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2190</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2190</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>730</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1825</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1095</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2190</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>730</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2555</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2190</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1862,11 +1939,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="150676992"/>
-        <c:axId val="206380352"/>
+        <c:axId val="191791104"/>
+        <c:axId val="190822016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="150676992"/>
+        <c:axId val="191791104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1875,7 +1952,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206380352"/>
+        <c:crossAx val="190822016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1883,7 +1960,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206380352"/>
+        <c:axId val="190822016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1894,7 +1971,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150676992"/>
+        <c:crossAx val="191791104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1941,7 +2018,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$C$35:$C$36</c:f>
+              <c:f>Planilha1!$C$42:$C$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1955,7 +2032,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$C$37:$C$52</c:f>
+              <c:f>Planilha1!$C$44:$C$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2017,7 +2094,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$D$35:$D$36</c:f>
+              <c:f>Planilha1!$D$42:$D$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2031,7 +2108,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$D$37:$D$52</c:f>
+              <c:f>Planilha1!$D$44:$D$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2093,7 +2170,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$E$35:$E$36</c:f>
+              <c:f>Planilha1!$E$42:$E$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2107,7 +2184,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$E$37:$E$52</c:f>
+              <c:f>Planilha1!$E$44:$E$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2174,11 +2251,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="141551104"/>
-        <c:axId val="225339072"/>
+        <c:axId val="191791616"/>
+        <c:axId val="190823744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="141551104"/>
+        <c:axId val="191791616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2187,7 +2264,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="225339072"/>
+        <c:crossAx val="190823744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2195,7 +2272,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="225339072"/>
+        <c:axId val="190823744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2206,7 +2283,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141551104"/>
+        <c:crossAx val="191791616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2232,20 +2309,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>21430</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2628900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>351341</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1190625</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>264318</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>487939</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>479281</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="24" name="Gráfico 23"/>
+        <xdr:cNvPr id="28" name="Gráfico 27"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2262,20 +2339,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>378617</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>20102</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>22821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1190625</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>121442</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1875004</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>245298</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="25" name="Gráfico 24"/>
+        <xdr:cNvPr id="31" name="Gráfico 30"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2292,20 +2369,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>307180</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>10825</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>347230</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1190625</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>50005</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1868201</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>74901</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="26" name="Gráfico 25"/>
+        <xdr:cNvPr id="32" name="Gráfico 31"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2323,19 +2400,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1435243</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>469538</xdr:rowOff>
+      <xdr:colOff>8659</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>39830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2357437</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1866034</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>271893</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="28" name="Gráfico 27"/>
+        <xdr:cNvPr id="33" name="Gráfico 32"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2352,20 +2429,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>472540</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>479589</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>34636</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>5195</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>989612</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>202004</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1887682</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>237259</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="31" name="Gráfico 30"/>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2382,20 +2459,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>484910</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>17319</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>368876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1004455</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1870365</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>98713</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="32" name="Gráfico 31"/>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2412,20 +2489,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>500063</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>57148</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>39831</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1019608</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>289212</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1853046</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>271895</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="33" name="Gráfico 32"/>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2442,20 +2519,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1547812</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>297438</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2618076</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>75115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2214561</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142009</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>166254</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="34" name="Gráfico 33"/>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2770,10 +2847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:M55"/>
+  <dimension ref="C1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.7109375" defaultRowHeight="39.950000000000003" customHeight="1"/>
@@ -2781,104 +2858,127 @@
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
     <col min="2" max="3" width="51" style="1" customWidth="1"/>
     <col min="4" max="4" width="51" style="2" customWidth="1"/>
-    <col min="5" max="7" width="60.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="60.7109375" style="1" customWidth="1"/>
+    <col min="7" max="9" width="40.7109375" style="1" customWidth="1"/>
     <col min="10" max="16384" width="40.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:13" ht="39.950000000000003" customHeight="1" thickBot="1"/>
     <row r="2" spans="3:13" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="49" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="3:13" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="48" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="3:13" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="C4" s="7">
-        <v>8</v>
+      <c r="C4" s="3">
+        <v>7</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="3:13" ht="39.950000000000003" customHeight="1" thickBot="1">
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="3:13" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="C6" s="18" t="s">
+    <row r="6" spans="3:13" ht="39.950000000000003" customHeight="1">
+      <c r="C6" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="20"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="39"/>
     </row>
     <row r="7" spans="3:13" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="24"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="11"/>
     </row>
     <row r="8" spans="3:13" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="24"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="M8" s="11"/>
     </row>
     <row r="9" spans="3:13" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="24"/>
-    </row>
-    <row r="10" spans="3:13" ht="39.950000000000003" customHeight="1">
+      <c r="F9" s="10"/>
+      <c r="G9" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="3:13" ht="39.950000000000003" customHeight="1" thickBot="1">
       <c r="C10" s="32">
         <v>1</v>
       </c>
@@ -2888,700 +2988,1129 @@
       <c r="E10" s="32">
         <v>2</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="24"/>
-      <c r="M10" s="17"/>
-    </row>
-    <row r="11" spans="3:13" ht="39.950000000000003" customHeight="1">
-      <c r="C11" s="15">
+      <c r="F10" s="10"/>
+      <c r="G10" s="22">
+        <f>_xlfn.QUARTILE.INC(C10:C25,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="23">
+        <f>_xlfn.QUARTILE.INC(C10:C25,1)</f>
+        <v>2</v>
+      </c>
+      <c r="I10" s="23">
+        <f>_xlfn.QUARTILE.INC(C10:C25,2)</f>
+        <v>4.5</v>
+      </c>
+      <c r="J10" s="23">
+        <f>_xlfn.QUARTILE.INC(C10:C25,3)</f>
+        <v>6</v>
+      </c>
+      <c r="K10" s="24">
+        <f>_xlfn.QUARTILE.INC(C10:C25,4)</f>
+        <v>7</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="3:13" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="C11" s="6">
         <v>4</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="6">
         <v>3</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="6">
         <v>6</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="24"/>
-    </row>
-    <row r="12" spans="3:13" ht="39.950000000000003" customHeight="1">
-      <c r="C12" s="15">
+      <c r="F11" s="10"/>
+      <c r="G11" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="11"/>
+    </row>
+    <row r="12" spans="3:13" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="C12" s="6">
         <v>4</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="6">
         <v>6</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="6">
         <v>5</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="24"/>
-    </row>
-    <row r="13" spans="3:13" ht="39.950000000000003" customHeight="1">
-      <c r="C13" s="15">
+      <c r="F12" s="10"/>
+      <c r="G12" s="22">
+        <f>_xlfn.QUARTILE.INC(D10:D25,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="23">
+        <f>_xlfn.QUARTILE.INC(D10:D25,1)</f>
+        <v>2.75</v>
+      </c>
+      <c r="I12" s="23">
+        <f>_xlfn.QUARTILE.INC(D10:D25,2)</f>
+        <v>4.5</v>
+      </c>
+      <c r="J12" s="23">
+        <f>_xlfn.QUARTILE.INC(D10:D25,3)</f>
+        <v>5.25</v>
+      </c>
+      <c r="K12" s="24">
+        <f>_xlfn.QUARTILE.INC(D10:D25,4)</f>
+        <v>7</v>
+      </c>
+      <c r="L12" s="10"/>
+      <c r="M12" s="11"/>
+    </row>
+    <row r="13" spans="3:13" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="C13" s="6">
         <v>5</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="6">
         <v>7</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="6">
         <v>4</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="24"/>
-    </row>
-    <row r="14" spans="3:13" ht="39.950000000000003" customHeight="1">
-      <c r="C14" s="15">
+      <c r="F13" s="10"/>
+      <c r="G13" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="11"/>
+    </row>
+    <row r="14" spans="3:13" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="C14" s="6">
         <v>2</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="6">
         <v>2</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="6">
         <v>2</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="24"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="25">
+        <f>_xlfn.QUARTILE.INC(E10:E25,0)</f>
+        <v>2</v>
+      </c>
+      <c r="H14" s="26">
+        <f>_xlfn.QUARTILE.INC(E10:E25,1)</f>
+        <v>2.75</v>
+      </c>
+      <c r="I14" s="26">
+        <f>_xlfn.QUARTILE.INC(E10:E25,2)</f>
+        <v>5</v>
+      </c>
+      <c r="J14" s="26">
+        <f>_xlfn.QUARTILE.INC(E10:E25,3)</f>
+        <v>6</v>
+      </c>
+      <c r="K14" s="27">
+        <f>_xlfn.QUARTILE.INC(E10:E25,4)</f>
+        <v>7</v>
+      </c>
+      <c r="L14" s="10"/>
+      <c r="M14" s="11"/>
     </row>
     <row r="15" spans="3:13" ht="39.950000000000003" customHeight="1">
-      <c r="C15" s="15">
+      <c r="C15" s="6">
         <v>6</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="6">
         <v>5</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="6">
         <v>6</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="24"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="11"/>
     </row>
     <row r="16" spans="3:13" ht="39.950000000000003" customHeight="1">
-      <c r="C16" s="15">
+      <c r="C16" s="6">
         <v>7</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="6">
         <v>6</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="6">
         <v>4</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="24"/>
-    </row>
-    <row r="17" spans="3:10" ht="39.950000000000003" customHeight="1">
-      <c r="C17" s="15">
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="11"/>
+    </row>
+    <row r="17" spans="3:13" ht="39.950000000000003" customHeight="1">
+      <c r="C17" s="6">
         <v>2</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="6">
         <v>6</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="6">
         <v>6</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="24"/>
-    </row>
-    <row r="18" spans="3:10" ht="39.950000000000003" customHeight="1">
-      <c r="C18" s="15">
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="11"/>
+    </row>
+    <row r="18" spans="3:13" ht="39.950000000000003" customHeight="1">
+      <c r="C18" s="6">
         <v>5</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="6">
         <v>2</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="6">
         <v>6</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="24"/>
-    </row>
-    <row r="19" spans="3:10" ht="39.950000000000003" customHeight="1">
-      <c r="C19" s="15">
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="11"/>
+    </row>
+    <row r="19" spans="3:13" ht="39.950000000000003" customHeight="1">
+      <c r="C19" s="6">
         <v>4</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="6">
         <v>4</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="6">
         <v>2</v>
       </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="24"/>
-    </row>
-    <row r="20" spans="3:10" ht="39.950000000000003" customHeight="1">
-      <c r="C20" s="15">
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="11"/>
+    </row>
+    <row r="20" spans="3:13" ht="39.950000000000003" customHeight="1">
+      <c r="C20" s="6">
         <v>1</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="6">
         <v>3</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="6">
         <v>5</v>
       </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="24"/>
-    </row>
-    <row r="21" spans="3:10" ht="39.950000000000003" customHeight="1">
-      <c r="C21" s="15">
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="11"/>
+    </row>
+    <row r="21" spans="3:13" ht="39.950000000000003" customHeight="1">
+      <c r="C21" s="6">
         <v>2</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="6">
         <v>5</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="6">
         <v>3</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="24"/>
-    </row>
-    <row r="22" spans="3:10" ht="39.950000000000003" customHeight="1">
-      <c r="C22" s="15">
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="11"/>
+    </row>
+    <row r="22" spans="3:13" ht="39.950000000000003" customHeight="1">
+      <c r="C22" s="6">
         <v>6</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="6">
         <v>5</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="6">
         <v>6</v>
       </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="24"/>
-    </row>
-    <row r="23" spans="3:10" ht="39.950000000000003" customHeight="1">
-      <c r="C23" s="15">
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="11"/>
+    </row>
+    <row r="23" spans="3:13" ht="39.950000000000003" customHeight="1">
+      <c r="C23" s="6">
         <v>7</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="6">
         <v>1</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="6">
         <v>2</v>
       </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="24"/>
-    </row>
-    <row r="24" spans="3:10" ht="39.950000000000003" customHeight="1">
-      <c r="C24" s="15">
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="11"/>
+    </row>
+    <row r="24" spans="3:13" ht="39.950000000000003" customHeight="1">
+      <c r="C24" s="6">
         <v>6</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="6">
         <v>3</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="6">
         <v>7</v>
       </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="24"/>
-    </row>
-    <row r="25" spans="3:10" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="C25" s="16">
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="11"/>
+    </row>
+    <row r="25" spans="3:13" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="C25" s="7">
         <v>6</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="7">
         <v>5</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="7">
         <v>6</v>
       </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="24"/>
-    </row>
-    <row r="26" spans="3:10" ht="39.950000000000003" customHeight="1">
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="24"/>
-    </row>
-    <row r="27" spans="3:10" ht="39.950000000000003" customHeight="1">
-      <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="24"/>
-    </row>
-    <row r="28" spans="3:10" ht="39.950000000000003" customHeight="1">
-      <c r="C28" s="21"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="24"/>
-    </row>
-    <row r="29" spans="3:10" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="C29" s="27"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="26"/>
-    </row>
-    <row r="31" spans="3:10" ht="39.950000000000003" customHeight="1" thickBot="1"/>
-    <row r="32" spans="3:10" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="C32" s="18" t="s">
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="11"/>
+    </row>
+    <row r="26" spans="3:13" ht="39.950000000000003" customHeight="1">
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="11"/>
+    </row>
+    <row r="27" spans="3:13" ht="39.950000000000003" customHeight="1">
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="11"/>
+    </row>
+    <row r="28" spans="3:13" ht="39.950000000000003" customHeight="1">
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="11"/>
+    </row>
+    <row r="29" spans="3:13" ht="39.950000000000003" customHeight="1">
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="11"/>
+    </row>
+    <row r="30" spans="3:13" ht="39.950000000000003" customHeight="1">
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="11"/>
+    </row>
+    <row r="31" spans="3:13" ht="39.950000000000003" customHeight="1">
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="11"/>
+    </row>
+    <row r="32" spans="3:13" ht="39.950000000000003" customHeight="1">
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="11"/>
+    </row>
+    <row r="33" spans="3:13" ht="39.950000000000003" customHeight="1">
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="11"/>
+    </row>
+    <row r="34" spans="3:13" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="C34" s="31"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="30"/>
+    </row>
+    <row r="35" spans="3:13" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="C35" s="31"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="30"/>
+    </row>
+    <row r="36" spans="3:13" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="C36" s="14"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="13"/>
+    </row>
+    <row r="38" spans="3:13" ht="39.950000000000003" customHeight="1" thickBot="1"/>
+    <row r="39" spans="3:13" ht="39.950000000000003" customHeight="1">
+      <c r="C39" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="3:10" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="C33" s="21"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="24"/>
-    </row>
-    <row r="34" spans="3:10" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="C34" s="9" t="s">
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="39"/>
+    </row>
+    <row r="40" spans="3:13" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="11"/>
+    </row>
+    <row r="41" spans="3:13" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="C41" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="24"/>
-    </row>
-    <row r="35" spans="3:10" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="C35" s="12" t="s">
+      <c r="D41" s="41"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K41" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L41" s="10"/>
+      <c r="M41" s="11"/>
+    </row>
+    <row r="42" spans="3:13" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="C42" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D42" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E42" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="24"/>
-    </row>
-    <row r="36" spans="3:10" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="C36" s="38" t="s">
+      <c r="F42" s="10"/>
+      <c r="G42" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="11"/>
+    </row>
+    <row r="43" spans="3:13" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="C43" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="37" t="s">
+      <c r="D43" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="36" t="s">
+      <c r="E43" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="24"/>
-    </row>
-    <row r="37" spans="3:10" ht="39.950000000000003" customHeight="1">
-      <c r="C37" s="33">
-        <f>C10 * 7</f>
+      <c r="F43" s="10"/>
+      <c r="G43" s="22">
+        <f>_xlfn.QUARTILE.INC(C44:C59,0)</f>
         <v>7</v>
       </c>
-      <c r="D37" s="33">
-        <f>D10 * 30</f>
+      <c r="H43" s="23">
+        <f>_xlfn.QUARTILE.INC(C44:C59,1)</f>
+        <v>14</v>
+      </c>
+      <c r="I43" s="23">
+        <f>_xlfn.QUARTILE.INC(C44:C59,2)</f>
+        <v>31.5</v>
+      </c>
+      <c r="J43" s="23">
+        <f>_xlfn.QUARTILE.INC(C44:C59,3)</f>
+        <v>42</v>
+      </c>
+      <c r="K43" s="24">
+        <f>_xlfn.QUARTILE.INC(C44:C59,4)</f>
+        <v>49</v>
+      </c>
+      <c r="L43" s="10"/>
+      <c r="M43" s="11"/>
+    </row>
+    <row r="44" spans="3:13" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="C44" s="33">
+        <f t="shared" ref="C44:C59" si="0">C10 * 7</f>
+        <v>7</v>
+      </c>
+      <c r="D44" s="33">
+        <f t="shared" ref="D44:D59" si="1">D10 * 30</f>
         <v>60</v>
       </c>
-      <c r="E37" s="33">
-        <f>E10 * 365</f>
+      <c r="E44" s="33">
+        <f t="shared" ref="E44:E59" si="2">E10 * 365</f>
         <v>730</v>
       </c>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="24"/>
-    </row>
-    <row r="38" spans="3:10" ht="39.950000000000003" customHeight="1">
-      <c r="C38" s="34">
-        <f>C11 * 7</f>
+      <c r="F44" s="10"/>
+      <c r="G44" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="11"/>
+    </row>
+    <row r="45" spans="3:13" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="C45" s="16">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="D38" s="34">
-        <f>D11 * 30</f>
+      <c r="D45" s="16">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="E38" s="34">
-        <f>E11 * 365</f>
+      <c r="E45" s="16">
+        <f t="shared" si="2"/>
         <v>2190</v>
       </c>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="24"/>
-    </row>
-    <row r="39" spans="3:10" ht="39.950000000000003" customHeight="1">
-      <c r="C39" s="34">
-        <f>C12 * 7</f>
+      <c r="F45" s="10"/>
+      <c r="G45" s="22">
+        <f>_xlfn.QUARTILE.INC(D44:D59,0)</f>
+        <v>30</v>
+      </c>
+      <c r="H45" s="23">
+        <f>_xlfn.QUARTILE.INC(D44:D59,1)</f>
+        <v>82.5</v>
+      </c>
+      <c r="I45" s="23">
+        <f>_xlfn.QUARTILE.INC(D44:D59,2)</f>
+        <v>135</v>
+      </c>
+      <c r="J45" s="23">
+        <f>_xlfn.QUARTILE.INC(D44:D59,3)</f>
+        <v>157.5</v>
+      </c>
+      <c r="K45" s="24">
+        <f>_xlfn.QUARTILE.INC(D44:D59,4)</f>
+        <v>210</v>
+      </c>
+      <c r="L45" s="10"/>
+      <c r="M45" s="11"/>
+    </row>
+    <row r="46" spans="3:13" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="C46" s="16">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="D39" s="34">
-        <f>D12 * 30</f>
+      <c r="D46" s="16">
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="E39" s="34">
-        <f>E12 * 365</f>
+      <c r="E46" s="16">
+        <f t="shared" si="2"/>
         <v>1825</v>
       </c>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="24"/>
-    </row>
-    <row r="40" spans="3:10" ht="39.950000000000003" customHeight="1">
-      <c r="C40" s="34">
-        <f>C13 * 7</f>
+      <c r="F46" s="10"/>
+      <c r="G46" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="11"/>
+    </row>
+    <row r="47" spans="3:13" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="C47" s="16">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D40" s="34">
-        <f>D13 * 30</f>
+      <c r="D47" s="16">
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
-      <c r="E40" s="34">
-        <f>E13 * 365</f>
+      <c r="E47" s="16">
+        <f t="shared" si="2"/>
         <v>1460</v>
       </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="24"/>
-    </row>
-    <row r="41" spans="3:10" ht="39.950000000000003" customHeight="1">
-      <c r="C41" s="34">
-        <f>C14 * 7</f>
+      <c r="F47" s="10"/>
+      <c r="G47" s="25">
+        <f>_xlfn.QUARTILE.INC(E44:E59,0)</f>
+        <v>730</v>
+      </c>
+      <c r="H47" s="26">
+        <f>_xlfn.QUARTILE.INC(E44:E59,1)</f>
+        <v>1003.75</v>
+      </c>
+      <c r="I47" s="26">
+        <f>_xlfn.QUARTILE.INC(E44:E59,2)</f>
+        <v>1825</v>
+      </c>
+      <c r="J47" s="26">
+        <f>_xlfn.QUARTILE.INC(E44:E59,3)</f>
+        <v>2190</v>
+      </c>
+      <c r="K47" s="27">
+        <f>_xlfn.QUARTILE.INC(E44:E59,4)</f>
+        <v>2555</v>
+      </c>
+      <c r="L47" s="10"/>
+      <c r="M47" s="11"/>
+    </row>
+    <row r="48" spans="3:13" ht="39.950000000000003" customHeight="1">
+      <c r="C48" s="16">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D41" s="34">
-        <f>D14 * 30</f>
+      <c r="D48" s="16">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="E41" s="34">
-        <f>E14 * 365</f>
+      <c r="E48" s="16">
+        <f t="shared" si="2"/>
         <v>730</v>
       </c>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="24"/>
-    </row>
-    <row r="42" spans="3:10" ht="39.950000000000003" customHeight="1">
-      <c r="C42" s="34">
-        <f>C15 * 7</f>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="11"/>
+    </row>
+    <row r="49" spans="3:13" ht="39.950000000000003" customHeight="1">
+      <c r="C49" s="16">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="D42" s="34">
-        <f>D15 * 30</f>
+      <c r="D49" s="16">
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="E42" s="34">
-        <f>E15 * 365</f>
+      <c r="E49" s="16">
+        <f t="shared" si="2"/>
         <v>2190</v>
       </c>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="24"/>
-    </row>
-    <row r="43" spans="3:10" ht="39.950000000000003" customHeight="1">
-      <c r="C43" s="34">
-        <f>C16 * 7</f>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="11"/>
+    </row>
+    <row r="50" spans="3:13" ht="39.950000000000003" customHeight="1">
+      <c r="C50" s="16">
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="D43" s="34">
-        <f>D16 * 30</f>
+      <c r="D50" s="16">
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="E43" s="34">
-        <f>E16 * 365</f>
+      <c r="E50" s="16">
+        <f t="shared" si="2"/>
         <v>1460</v>
       </c>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="24"/>
-    </row>
-    <row r="44" spans="3:10" ht="39.950000000000003" customHeight="1">
-      <c r="C44" s="34">
-        <f>C17 * 7</f>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="11"/>
+    </row>
+    <row r="51" spans="3:13" ht="39.950000000000003" customHeight="1">
+      <c r="C51" s="16">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D44" s="34">
-        <f>D17 * 30</f>
+      <c r="D51" s="16">
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="E44" s="34">
-        <f>E17 * 365</f>
+      <c r="E51" s="16">
+        <f t="shared" si="2"/>
         <v>2190</v>
       </c>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="24"/>
-    </row>
-    <row r="45" spans="3:10" ht="39.950000000000003" customHeight="1">
-      <c r="C45" s="34">
-        <f>C18 * 7</f>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="11"/>
+    </row>
+    <row r="52" spans="3:13" ht="39.950000000000003" customHeight="1">
+      <c r="C52" s="16">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D45" s="34">
-        <f>D18 * 30</f>
+      <c r="D52" s="16">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="E45" s="34">
-        <f>E18 * 365</f>
+      <c r="E52" s="16">
+        <f t="shared" si="2"/>
         <v>2190</v>
       </c>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="24"/>
-    </row>
-    <row r="46" spans="3:10" ht="39.950000000000003" customHeight="1">
-      <c r="C46" s="34">
-        <f>C19 * 7</f>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="11"/>
+    </row>
+    <row r="53" spans="3:13" ht="39.950000000000003" customHeight="1">
+      <c r="C53" s="16">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="D46" s="34">
-        <f>D19 * 30</f>
+      <c r="D53" s="16">
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="E46" s="34">
-        <f>E19 * 365</f>
+      <c r="E53" s="16">
+        <f t="shared" si="2"/>
         <v>730</v>
       </c>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="24"/>
-    </row>
-    <row r="47" spans="3:10" ht="39.950000000000003" customHeight="1">
-      <c r="C47" s="34">
-        <f>C20 * 7</f>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="11"/>
+    </row>
+    <row r="54" spans="3:13" ht="39.950000000000003" customHeight="1">
+      <c r="C54" s="16">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D47" s="34">
-        <f>D20 * 30</f>
+      <c r="D54" s="16">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="E47" s="34">
-        <f>E20 * 365</f>
+      <c r="E54" s="16">
+        <f t="shared" si="2"/>
         <v>1825</v>
       </c>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="24"/>
-    </row>
-    <row r="48" spans="3:10" ht="39.950000000000003" customHeight="1">
-      <c r="C48" s="34">
-        <f>C21 * 7</f>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="11"/>
+    </row>
+    <row r="55" spans="3:13" ht="39.950000000000003" customHeight="1">
+      <c r="C55" s="16">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D48" s="34">
-        <f>D21 * 30</f>
+      <c r="D55" s="16">
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="E48" s="34">
-        <f>E21 * 365</f>
+      <c r="E55" s="16">
+        <f t="shared" si="2"/>
         <v>1095</v>
       </c>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="24"/>
-    </row>
-    <row r="49" spans="3:10" ht="39.950000000000003" customHeight="1">
-      <c r="C49" s="34">
-        <f>C22 * 7</f>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="11"/>
+    </row>
+    <row r="56" spans="3:13" ht="39.950000000000003" customHeight="1">
+      <c r="C56" s="16">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="D49" s="34">
-        <f>D22 * 30</f>
+      <c r="D56" s="16">
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="E49" s="34">
-        <f>E22 * 365</f>
+      <c r="E56" s="16">
+        <f t="shared" si="2"/>
         <v>2190</v>
       </c>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="24"/>
-    </row>
-    <row r="50" spans="3:10" ht="39.950000000000003" customHeight="1">
-      <c r="C50" s="34">
-        <f>C23 * 7</f>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="11"/>
+    </row>
+    <row r="57" spans="3:13" ht="39.950000000000003" customHeight="1">
+      <c r="C57" s="16">
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="D50" s="34">
-        <f>D23 * 30</f>
+      <c r="D57" s="16">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="E50" s="34">
-        <f>E23 * 365</f>
+      <c r="E57" s="16">
+        <f t="shared" si="2"/>
         <v>730</v>
       </c>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="24"/>
-    </row>
-    <row r="51" spans="3:10" ht="39.950000000000003" customHeight="1">
-      <c r="C51" s="34">
-        <f>C24 * 7</f>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="11"/>
+    </row>
+    <row r="58" spans="3:13" ht="39.950000000000003" customHeight="1">
+      <c r="C58" s="16">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="D51" s="34">
-        <f>D24 * 30</f>
+      <c r="D58" s="16">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="E51" s="34">
-        <f>E24 * 365</f>
+      <c r="E58" s="16">
+        <f t="shared" si="2"/>
         <v>2555</v>
       </c>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="24"/>
-    </row>
-    <row r="52" spans="3:10" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="C52" s="35">
-        <f>C25 * 7</f>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="11"/>
+    </row>
+    <row r="59" spans="3:13" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="C59" s="17">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="D52" s="35">
-        <f>D25 * 30</f>
+      <c r="D59" s="17">
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="E52" s="35">
-        <f>E25 * 365</f>
+      <c r="E59" s="17">
+        <f t="shared" si="2"/>
         <v>2190</v>
       </c>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="24"/>
-    </row>
-    <row r="53" spans="3:10" ht="39.950000000000003" customHeight="1">
-      <c r="C53" s="21"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="24"/>
-    </row>
-    <row r="54" spans="3:10" ht="39.950000000000003" customHeight="1">
-      <c r="C54" s="21"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="24"/>
-    </row>
-    <row r="55" spans="3:10" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="C55" s="27"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="26"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="11"/>
+    </row>
+    <row r="60" spans="3:13" ht="39.950000000000003" customHeight="1">
+      <c r="C60" s="8"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="11"/>
+    </row>
+    <row r="61" spans="3:13" ht="39.950000000000003" customHeight="1">
+      <c r="C61" s="8"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="11"/>
+    </row>
+    <row r="62" spans="3:13" ht="39.950000000000003" customHeight="1">
+      <c r="C62" s="8"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="11"/>
+    </row>
+    <row r="63" spans="3:13" ht="39.950000000000003" customHeight="1">
+      <c r="C63" s="8"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="11"/>
+    </row>
+    <row r="64" spans="3:13" ht="39.950000000000003" customHeight="1">
+      <c r="C64" s="8"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="11"/>
+    </row>
+    <row r="65" spans="3:13" ht="39.950000000000003" customHeight="1">
+      <c r="C65" s="8"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="11"/>
+    </row>
+    <row r="66" spans="3:13" ht="39.950000000000003" customHeight="1">
+      <c r="C66" s="8"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="11"/>
+    </row>
+    <row r="67" spans="3:13" ht="39.950000000000003" customHeight="1">
+      <c r="C67" s="8"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="11"/>
+    </row>
+    <row r="68" spans="3:13" ht="39.950000000000003" customHeight="1">
+      <c r="C68" s="8"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="11"/>
+    </row>
+    <row r="69" spans="3:13" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="C69" s="14"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C34:E34"/>
+  <mergeCells count="10">
     <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="G44:K44"/>
+    <mergeCell ref="G46:K46"/>
+    <mergeCell ref="C39:M39"/>
+    <mergeCell ref="C41:E41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
